--- a/Data/Excel/Model/User/WorldStage.xlsx
+++ b/Data/Excel/Model/User/WorldStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD228F5-9BC8-4A84-9828-BD874750489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD10FF-660C-4F12-BCC9-F31B1F5EAFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="4185" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -62,15 +62,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>pk, fk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pk</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarCnt</t>
+    <t>Star</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk, c_index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_index</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1005,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,6 +1076,17 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Excel/Model/User/WorldStage.xlsx
+++ b/Data/Excel/Model/User/WorldStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD10FF-660C-4F12-BCC9-F31B1F5EAFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E60ABB-B6EB-4D96-91D2-620326FE2651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="2265" yWindow="2265" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -70,15 +70,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>WorldId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pk, fk, c_index</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>c_index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldNum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,13 +1073,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
